--- a/medicine/Psychotrope/Ginder_Ale/Ginder_Ale.xlsx
+++ b/medicine/Psychotrope/Ginder_Ale/Ginder_Ale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ginder Ale est une bière flamande ambrée de fermentation haute.
-La Ginder Ale a été créée par l'ancienne brasserie Martinas de Merchtem en 1928. Au début, le nom Ginder-Ale s'écrivait avec un trait d'union. Son nom provient de Van Ginderachter, nom du propriétaire de la brasserie à l'époque. Il cherchait à créer une ale dans le style de la De Koninck ou de la Palm, les bières de type anglais étant à la mode à l'époque[1],[2].
-En 1973, la brasserie a été reprise par la brasserie Artois et à la suite des diverses fusions est entrée au sein du groupe AB InBev. La Ginder Ale a été brassée à Merchtem jusqu'en 1991 quand sa production a été déplacée à Louvain[3].
+La Ginder Ale a été créée par l'ancienne brasserie Martinas de Merchtem en 1928. Au début, le nom Ginder-Ale s'écrivait avec un trait d'union. Son nom provient de Van Ginderachter, nom du propriétaire de la brasserie à l'époque. Il cherchait à créer une ale dans le style de la De Koninck ou de la Palm, les bières de type anglais étant à la mode à l'époque,.
+En 1973, la brasserie a été reprise par la brasserie Artois et à la suite des diverses fusions est entrée au sein du groupe AB InBev. La Ginder Ale a été brassée à Merchtem jusqu'en 1991 quand sa production a été déplacée à Louvain.
 La Ginder Ale demeure un bière locale de la région de Merchtem, sa production étant limitée à 3000 hectolitres. L'ancienne brasserie Merchtem a été reconvertie en logements.
 </t>
         </is>
